--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1338976.882807406</v>
+        <v>1336600.255860039</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283212</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>356.1218472568457</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>59.48550737293794</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,10 +832,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>98.52272637982443</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>17.88056229021825</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>275.7087445630216</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>111.1822535959284</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1066,10 +1066,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>100.6867690249416</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>177.3108534087812</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>402.5466192792182</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>73.2475687168849</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>120.3332554667404</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>196.4017961483599</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1370,10 +1370,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206789</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695538</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>119.2889395926989</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>8.61604858206776</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012176</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>9.146142788179425</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>75.96788793061855</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>104.8913819999782</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,16 +2059,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>244.655117794415</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>50.0620915095756</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>62.14989839348819</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>9.146142788179425</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740352</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>64.91921363453612</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>155.1980648094051</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>51.36569740310371</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428172</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3901,16 +3901,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>214.0647808588585</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>52.91369288257679</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1192.384522157329</v>
+        <v>1990.953909778728</v>
       </c>
       <c r="C2" t="n">
-        <v>1192.384522157329</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D2" t="n">
-        <v>1192.384522157329</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E2" t="n">
-        <v>1192.384522157329</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>781.398617367722</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664335</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W2" t="n">
-        <v>1955.989612394221</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X2" t="n">
-        <v>1582.523854133141</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="Y2" t="n">
-        <v>1192.384522157329</v>
+        <v>2377.55374984285</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>777.6069060507746</v>
+        <v>717.852508549538</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.868925009995</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.15405360694</v>
+        <v>1468.399656105704</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783102</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,58 +4462,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>620.7172435647353</v>
+        <v>932.6070201144368</v>
       </c>
       <c r="C4" t="n">
-        <v>620.7172435647353</v>
+        <v>763.6708371865299</v>
       </c>
       <c r="D4" t="n">
-        <v>620.7172435647353</v>
+        <v>613.5541977741941</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>465.641104191801</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>318.7511566938906</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>150.7646920021692</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>150.7646920021692</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
         <v>1114.255484944676</v>
@@ -4522,16 +4522,16 @@
         <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>859.5709967387889</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W4" t="n">
-        <v>841.5098227082655</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="X4" t="n">
-        <v>841.5098227082655</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="Y4" t="n">
-        <v>620.7172435647353</v>
+        <v>1114.255484944676</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>540.2706867570294</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="C5" t="n">
-        <v>540.2706867570294</v>
+        <v>1859.93196259204</v>
       </c>
       <c r="D5" t="n">
-        <v>540.2706867570294</v>
+        <v>1501.666263985289</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>1115.878011387045</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2450.034021737602</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2241.288380343426</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>1987.707319607606</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>1656.644432264035</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W5" t="n">
-        <v>1303.875776993921</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X5" t="n">
-        <v>930.4100187328411</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="Y5" t="n">
-        <v>540.2706867570294</v>
+        <v>2228.894479532451</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4638,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143496</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>979.6730931919908</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>496.1664670606423</v>
+        <v>934.7929217761713</v>
       </c>
       <c r="C7" t="n">
-        <v>496.1664670606423</v>
+        <v>765.8567388482644</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>615.7400994359286</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>467.8270058535355</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>320.9370583556251</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>152.9505936639037</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1457.344247944415</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1234.36576713915</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U7" t="n">
-        <v>1234.36576713915</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V7" t="n">
-        <v>1234.36576713915</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W7" t="n">
-        <v>944.9485971021898</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="X7" t="n">
-        <v>716.9590462041724</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="Y7" t="n">
-        <v>496.1664670606423</v>
+        <v>1116.441386606411</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>1589.988596769089</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>1221.026079828677</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>1221.026079828677</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>835.2378272304329</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>828.2923264812295</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4820,34 +4820,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X8" t="n">
-        <v>2363.652677778257</v>
+        <v>1980.127928744901</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.513345802446</v>
+        <v>1589.988596769089</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>854.8429682049862</v>
       </c>
       <c r="M9" t="n">
         <v>1218.104987164206</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.7955294637004</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800311</v>
+        <v>349.276519562732</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,31 +4981,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1092.643294372448</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W10" t="n">
-        <v>803.2261243354876</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X10" t="n">
-        <v>575.2365734374703</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y10" t="n">
-        <v>354.4439942939401</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551871</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611459</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.83315239859</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492574</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.25260147478</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612122999</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852884</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591805</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615993</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5106,31 +5106,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756263</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468466</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962605</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589156</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171283</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>564.5188827892214</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>564.5188827892214</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>416.6057892068283</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>269.7158417089179</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>102.5197424237978</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.8166630479718</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797738</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487565</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487565</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831763</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625876</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.896109690898</v>
+        <v>1272.7575184984</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.103530547368</v>
+        <v>1051.96493935487</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797183</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637304</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444888</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>945.4026036630049</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>776.466420735098</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>626.3497813227623</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
         <v>402.7245934908938</v>
@@ -5428,58 +5428,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="17">
@@ -5495,43 +5495,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>432.9862109052757</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>286.0962634073653</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6206,19 +6206,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192548</v>
@@ -6227,25 +6227,25 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,64 +6449,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6680,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,37 +6710,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703132</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355936</v>
@@ -7190,34 +7190,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516141</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348531</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="41">
@@ -7400,22 +7400,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7436,7 +7436,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348531</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,13 +7722,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1380.253191019954</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>1152.263640121936</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>931.4710609784063</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>186.4490126143855</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>193.3273467878345</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780643</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111052</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515151</v>
+        <v>265.0304328515136</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>4.092726157978177e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>60.54304058923844</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>131.6786642641561</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856559</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>139.4693302300329</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>70.46607471595063</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>41.54258064659096</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>41.86788054217604</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23981,10 +23981,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>115.4620467826932</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>139.4693302300329</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24740,7 +24740,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>45.44677382459267</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>221.265260754708</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24932,7 +24932,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>12.04875628922272</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25220,7 +25220,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="36">
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>145.6085800303783</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25406,7 +25406,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,22 +26020,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>233.6093054540142</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>934927.9732586424</v>
+        <v>934927.9732586427</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>934927.9732586425</v>
+        <v>934927.9732586428</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>934927.9732586426</v>
+        <v>934927.9732586427</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>934927.9732586426</v>
+        <v>934927.9732586427</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>934927.9732586426</v>
+        <v>934927.9732586427</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>934927.9732586427</v>
+        <v>934927.9732586426</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>934927.9732586426</v>
+        <v>934927.9732586427</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>934927.9732586427</v>
+        <v>934927.9732586426</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>934927.9732586424</v>
+        <v>934927.9732586428</v>
       </c>
     </row>
     <row r="15">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="G2" t="n">
+        <v>484287.9598140038</v>
+      </c>
+      <c r="H2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="G2" t="n">
-        <v>484287.9598140036</v>
-      </c>
-      <c r="H2" t="n">
-        <v>484287.9598140035</v>
       </c>
       <c r="I2" t="n">
         <v>484287.9598140036</v>
@@ -26338,19 +26338,19 @@
         <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="L2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="M2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="N2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="O2" t="n">
         <v>484287.9598140035</v>
-      </c>
-      <c r="O2" t="n">
-        <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
         <v>484287.9598140036</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245448</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
-        <v>6.694760941172718e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289265</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.641531071072677e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.026689228136092e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,13 +26418,13 @@
         <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719666</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
@@ -26442,7 +26442,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719658</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
         <v>7507.368461719667</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-848178.3576439383</v>
+        <v>-848178.3576439391</v>
       </c>
       <c r="C6" t="n">
-        <v>266573.4259319811</v>
+        <v>266573.4259319809</v>
       </c>
       <c r="D6" t="n">
-        <v>266573.4259319811</v>
+        <v>266573.4259319809</v>
       </c>
       <c r="E6" t="n">
-        <v>-131827.380096168</v>
+        <v>-131862.1180216046</v>
       </c>
       <c r="F6" t="n">
-        <v>375658.0615283761</v>
+        <v>375623.3236029412</v>
       </c>
       <c r="G6" t="n">
-        <v>375658.0615283767</v>
+        <v>375623.3236029415</v>
       </c>
       <c r="H6" t="n">
-        <v>375658.0615283767</v>
+        <v>375623.3236029411</v>
       </c>
       <c r="I6" t="n">
-        <v>375658.0615283768</v>
+        <v>375623.3236029411</v>
       </c>
       <c r="J6" t="n">
-        <v>208052.8837183944</v>
+        <v>208018.1457929583</v>
       </c>
       <c r="K6" t="n">
-        <v>375658.0615283769</v>
+        <v>375623.3236029411</v>
       </c>
       <c r="L6" t="n">
-        <v>375658.0615283768</v>
+        <v>375623.3236029412</v>
       </c>
       <c r="M6" t="n">
-        <v>243050.7677994504</v>
+        <v>243016.0298740146</v>
       </c>
       <c r="N6" t="n">
-        <v>375658.0615283769</v>
+        <v>375623.3236029412</v>
       </c>
       <c r="O6" t="n">
-        <v>375658.0615283767</v>
+        <v>375623.323602941</v>
       </c>
       <c r="P6" t="n">
-        <v>375658.0615283765</v>
+        <v>375623.3236029413</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26814,10 +26814,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241336</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,37 +27018,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996086</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="K4" t="n">
         <v>4.547473508864641e-13</v>
       </c>
-      <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000386</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996086</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996086</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>55.42585551610824</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>326.7524312831156</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6.273868824076118</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>268.6424360463727</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>131.1673011786899</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>12.26996180286602</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>46.56474013018726</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>17.3516069529563</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>9.001083493735791</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>296.4835319615842</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>46.91356563188748</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28065,10 +28065,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>55.73584717546808</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29946,7 +29946,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,25 +31203,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,25 +31440,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,34 +31513,34 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31549,13 +31549,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,34 +31592,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31628,10 +31628,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31677,19 +31677,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.49939899634843</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135337</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.015579806723</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817571</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162555</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175669</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159419</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460021</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236501</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669218</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043723</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651526</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659447</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521098</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420753</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422583</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473069</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862116</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200325</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437238</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742435</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121568</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869269</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392042</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417312</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532763</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099321</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704916</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,7 +32312,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,10 +32564,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32786,31 +32786,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,16 +33500,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>400.5469039565762</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558023</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,46 +34044,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558023</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,46 +34281,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,16 +34448,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>484.1293732522357</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>528.7520287839576</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215491</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750473</v>
+        <v>514.709961975046</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317114</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367765</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462683</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902942</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193509</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243154</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924723</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754086</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674327</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641933</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366992</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992794</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295325</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096347</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191312</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010448</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060451</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066247</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561613</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,10 +36212,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>257.9506595121318</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066269</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>527.4636460127483</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113578</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113578</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,13 +38099,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
